--- a/test_files/sixteen_tests_output/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests_output/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
     <sheet name="degradation_rates" sheetId="1" r:id="rId2"/>
-    <sheet name="wt" sheetId="17" r:id="rId3"/>
-    <sheet name="dcin5" sheetId="18" r:id="rId4"/>
+    <sheet name="wt_log2_expression" sheetId="17" r:id="rId3"/>
+    <sheet name="dcin5_log2_expression" sheetId="18" r:id="rId4"/>
     <sheet name="network" sheetId="5" r:id="rId5"/>
     <sheet name="network_weights" sheetId="11" r:id="rId6"/>
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
